--- a/Tools/Luban/MiniDesignerConfigsTemplate/Datas/datas/itemcfg.xlsx
+++ b/Tools/Luban/MiniDesignerConfigsTemplate/Datas/datas/itemcfg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="218">
   <si>
     <t>##var</t>
   </si>
@@ -31,6 +31,9 @@
     <t>des</t>
   </si>
   <si>
+    <t>effectList</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -40,709 +43,631 @@
     <t>string</t>
   </si>
   <si>
+    <t>(list#sep=,),int#ref=Datas.TbItemEffectCfg</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
-    <t>物品0</t>
+    <t>经验金币福袋</t>
   </si>
   <si>
     <t>物品0的地址</t>
   </si>
   <si>
-    <t>物品0的简介</t>
-  </si>
-  <si>
-    <t>物品1</t>
+    <t>增加100经验，100金币</t>
+  </si>
+  <si>
+    <t>0,10</t>
   </si>
   <si>
     <t>物品1的地址</t>
   </si>
   <si>
-    <t>物品1的简介</t>
-  </si>
-  <si>
-    <t>物品2</t>
+    <t>增加100经验，200金币</t>
+  </si>
+  <si>
+    <t>0,11</t>
   </si>
   <si>
     <t>物品2的地址</t>
   </si>
   <si>
-    <t>物品2的简介</t>
-  </si>
-  <si>
-    <t>物品3</t>
+    <t>增加100经验，300金币</t>
+  </si>
+  <si>
+    <t>0,12</t>
   </si>
   <si>
     <t>物品3的地址</t>
   </si>
   <si>
-    <t>物品3的简介</t>
-  </si>
-  <si>
-    <t>物品4</t>
+    <t>增加100经验，400金币</t>
+  </si>
+  <si>
+    <t>0,13</t>
   </si>
   <si>
     <t>物品4的地址</t>
   </si>
   <si>
-    <t>物品4的简介</t>
-  </si>
-  <si>
-    <t>物品5</t>
+    <t>增加100经验，500金币</t>
+  </si>
+  <si>
+    <t>0,14</t>
   </si>
   <si>
     <t>物品5的地址</t>
   </si>
   <si>
-    <t>物品5的简介</t>
-  </si>
-  <si>
-    <t>物品6</t>
+    <t>增加100经验，600金币</t>
+  </si>
+  <si>
+    <t>0,15</t>
   </si>
   <si>
     <t>物品6的地址</t>
   </si>
   <si>
-    <t>物品6的简介</t>
-  </si>
-  <si>
-    <t>物品7</t>
+    <t>增加100经验，700金币</t>
+  </si>
+  <si>
+    <t>0,16</t>
   </si>
   <si>
     <t>物品7的地址</t>
   </si>
   <si>
-    <t>物品7的简介</t>
-  </si>
-  <si>
-    <t>物品8</t>
+    <t>增加100经验，800金币</t>
+  </si>
+  <si>
+    <t>0,17</t>
   </si>
   <si>
     <t>物品8的地址</t>
   </si>
   <si>
-    <t>物品8的简介</t>
-  </si>
-  <si>
-    <t>物品9</t>
+    <t>增加100经验，900金币</t>
+  </si>
+  <si>
+    <t>0,18</t>
   </si>
   <si>
     <t>物品9的地址</t>
   </si>
   <si>
-    <t>物品9的简介</t>
-  </si>
-  <si>
-    <t>物品10</t>
+    <t>增加100经验，1000金币</t>
+  </si>
+  <si>
+    <t>0,19</t>
+  </si>
+  <si>
+    <t>钻石福袋</t>
   </si>
   <si>
     <t>物品10的地址</t>
   </si>
   <si>
-    <t>物品10的简介</t>
-  </si>
-  <si>
-    <t>物品11</t>
+    <t>增加10钻石</t>
   </si>
   <si>
     <t>物品11的地址</t>
   </si>
   <si>
-    <t>物品11的简介</t>
-  </si>
-  <si>
-    <t>物品12</t>
+    <t>增加20钻石</t>
   </si>
   <si>
     <t>物品12的地址</t>
   </si>
   <si>
-    <t>物品12的简介</t>
-  </si>
-  <si>
-    <t>物品13</t>
+    <t>增加30钻石</t>
   </si>
   <si>
     <t>物品13的地址</t>
   </si>
   <si>
-    <t>物品13的简介</t>
-  </si>
-  <si>
-    <t>物品14</t>
+    <t>增加40钻石</t>
   </si>
   <si>
     <t>物品14的地址</t>
   </si>
   <si>
-    <t>物品14的简介</t>
-  </si>
-  <si>
-    <t>物品15</t>
+    <t>增加50钻石</t>
   </si>
   <si>
     <t>物品15的地址</t>
   </si>
   <si>
-    <t>物品15的简介</t>
-  </si>
-  <si>
-    <t>物品16</t>
+    <t>增加60钻石</t>
   </si>
   <si>
     <t>物品16的地址</t>
   </si>
   <si>
-    <t>物品16的简介</t>
-  </si>
-  <si>
-    <t>物品17</t>
+    <t>增加70钻石</t>
   </si>
   <si>
     <t>物品17的地址</t>
   </si>
   <si>
-    <t>物品17的简介</t>
-  </si>
-  <si>
-    <t>物品18</t>
+    <t>增加80钻石</t>
   </si>
   <si>
     <t>物品18的地址</t>
   </si>
   <si>
-    <t>物品18的简介</t>
-  </si>
-  <si>
-    <t>物品19</t>
+    <t>增加90钻石</t>
   </si>
   <si>
     <t>物品19的地址</t>
   </si>
   <si>
-    <t>物品19的简介</t>
-  </si>
-  <si>
-    <t>物品20</t>
+    <t>增加100钻石</t>
   </si>
   <si>
     <t>物品20的地址</t>
   </si>
   <si>
-    <t>物品20的简介</t>
-  </si>
-  <si>
-    <t>物品21</t>
+    <t>增加110钻石</t>
   </si>
   <si>
     <t>物品21的地址</t>
   </si>
   <si>
-    <t>物品21的简介</t>
-  </si>
-  <si>
-    <t>物品22</t>
+    <t>增加120钻石</t>
   </si>
   <si>
     <t>物品22的地址</t>
   </si>
   <si>
-    <t>物品22的简介</t>
-  </si>
-  <si>
-    <t>物品23</t>
+    <t>增加130钻石</t>
   </si>
   <si>
     <t>物品23的地址</t>
   </si>
   <si>
-    <t>物品23的简介</t>
-  </si>
-  <si>
-    <t>物品24</t>
+    <t>增加140钻石</t>
   </si>
   <si>
     <t>物品24的地址</t>
   </si>
   <si>
-    <t>物品24的简介</t>
-  </si>
-  <si>
-    <t>物品25</t>
+    <t>增加150钻石</t>
   </si>
   <si>
     <t>物品25的地址</t>
   </si>
   <si>
-    <t>物品25的简介</t>
-  </si>
-  <si>
-    <t>物品26</t>
+    <t>增加160钻石</t>
   </si>
   <si>
     <t>物品26的地址</t>
   </si>
   <si>
-    <t>物品26的简介</t>
-  </si>
-  <si>
-    <t>物品27</t>
+    <t>增加170钻石</t>
   </si>
   <si>
     <t>物品27的地址</t>
   </si>
   <si>
-    <t>物品27的简介</t>
-  </si>
-  <si>
-    <t>物品28</t>
+    <t>增加180钻石</t>
   </si>
   <si>
     <t>物品28的地址</t>
   </si>
   <si>
-    <t>物品28的简介</t>
-  </si>
-  <si>
-    <t>物品29</t>
+    <t>增加190钻石</t>
   </si>
   <si>
     <t>物品29的地址</t>
   </si>
   <si>
-    <t>物品29的简介</t>
-  </si>
-  <si>
-    <t>物品30</t>
+    <t>增加200钻石</t>
+  </si>
+  <si>
+    <t>金币钻石福袋</t>
   </si>
   <si>
     <t>物品30的地址</t>
   </si>
   <si>
-    <t>物品30的简介</t>
-  </si>
-  <si>
-    <t>物品31</t>
+    <t>增加1000金币，10钻石</t>
+  </si>
+  <si>
+    <t>10,20</t>
   </si>
   <si>
     <t>物品31的地址</t>
   </si>
   <si>
-    <t>物品31的简介</t>
-  </si>
-  <si>
-    <t>物品32</t>
+    <t>增加1000金币，20钻石</t>
+  </si>
+  <si>
+    <t>10,21</t>
   </si>
   <si>
     <t>物品32的地址</t>
   </si>
   <si>
-    <t>物品32的简介</t>
-  </si>
-  <si>
-    <t>物品33</t>
+    <t>增加1000金币，30钻石</t>
+  </si>
+  <si>
+    <t>10,22</t>
   </si>
   <si>
     <t>物品33的地址</t>
   </si>
   <si>
-    <t>物品33的简介</t>
-  </si>
-  <si>
-    <t>物品34</t>
+    <t>增加1000金币，40钻石</t>
+  </si>
+  <si>
+    <t>10,23</t>
   </si>
   <si>
     <t>物品34的地址</t>
   </si>
   <si>
-    <t>物品34的简介</t>
-  </si>
-  <si>
-    <t>物品35</t>
+    <t>增加1000金币，50钻石</t>
+  </si>
+  <si>
+    <t>10,24</t>
   </si>
   <si>
     <t>物品35的地址</t>
   </si>
   <si>
-    <t>物品35的简介</t>
-  </si>
-  <si>
-    <t>物品36</t>
+    <t>增加1000金币，60钻石</t>
+  </si>
+  <si>
+    <t>10,25</t>
   </si>
   <si>
     <t>物品36的地址</t>
   </si>
   <si>
-    <t>物品36的简介</t>
-  </si>
-  <si>
-    <t>物品37</t>
+    <t>增加1000金币，70钻石</t>
+  </si>
+  <si>
+    <t>10,26</t>
   </si>
   <si>
     <t>物品37的地址</t>
   </si>
   <si>
-    <t>物品37的简介</t>
-  </si>
-  <si>
-    <t>物品38</t>
+    <t>增加1000金币，80钻石</t>
+  </si>
+  <si>
+    <t>10,27</t>
   </si>
   <si>
     <t>物品38的地址</t>
   </si>
   <si>
-    <t>物品38的简介</t>
-  </si>
-  <si>
-    <t>物品39</t>
+    <t>增加1000金币，90钻石</t>
+  </si>
+  <si>
+    <t>10,28</t>
   </si>
   <si>
     <t>物品39的地址</t>
   </si>
   <si>
-    <t>物品39的简介</t>
-  </si>
-  <si>
-    <t>物品40</t>
+    <t>增加1000金币，100钻石</t>
+  </si>
+  <si>
+    <t>10,29</t>
   </si>
   <si>
     <t>物品40的地址</t>
   </si>
   <si>
-    <t>物品40的简介</t>
-  </si>
-  <si>
-    <t>物品41</t>
+    <t>增加1000金币，110钻石</t>
+  </si>
+  <si>
+    <t>10,30</t>
   </si>
   <si>
     <t>物品41的地址</t>
   </si>
   <si>
-    <t>物品41的简介</t>
-  </si>
-  <si>
-    <t>物品42</t>
+    <t>增加1000金币，120钻石</t>
+  </si>
+  <si>
+    <t>10,31</t>
   </si>
   <si>
     <t>物品42的地址</t>
   </si>
   <si>
-    <t>物品42的简介</t>
-  </si>
-  <si>
-    <t>物品43</t>
+    <t>增加1000金币，130钻石</t>
+  </si>
+  <si>
+    <t>10,32</t>
   </si>
   <si>
     <t>物品43的地址</t>
   </si>
   <si>
-    <t>物品43的简介</t>
-  </si>
-  <si>
-    <t>物品44</t>
+    <t>增加1000金币，140钻石</t>
+  </si>
+  <si>
+    <t>10,33</t>
   </si>
   <si>
     <t>物品44的地址</t>
   </si>
   <si>
-    <t>物品44的简介</t>
-  </si>
-  <si>
-    <t>物品45</t>
+    <t>增加1000金币，150钻石</t>
+  </si>
+  <si>
+    <t>10,34</t>
   </si>
   <si>
     <t>物品45的地址</t>
   </si>
   <si>
-    <t>物品45的简介</t>
-  </si>
-  <si>
-    <t>物品46</t>
+    <t>增加1000金币，160钻石</t>
+  </si>
+  <si>
+    <t>10,35</t>
   </si>
   <si>
     <t>物品46的地址</t>
   </si>
   <si>
-    <t>物品46的简介</t>
-  </si>
-  <si>
-    <t>物品47</t>
+    <t>增加1000金币，170钻石</t>
+  </si>
+  <si>
+    <t>10,36</t>
   </si>
   <si>
     <t>物品47的地址</t>
   </si>
   <si>
-    <t>物品47的简介</t>
-  </si>
-  <si>
-    <t>物品48</t>
+    <t>增加1000金币，180钻石</t>
+  </si>
+  <si>
+    <t>10,37</t>
   </si>
   <si>
     <t>物品48的地址</t>
   </si>
   <si>
-    <t>物品48的简介</t>
-  </si>
-  <si>
-    <t>物品49</t>
+    <t>增加1000金币，190钻石</t>
+  </si>
+  <si>
+    <t>10,38</t>
   </si>
   <si>
     <t>物品49的地址</t>
   </si>
   <si>
-    <t>物品49的简介</t>
-  </si>
-  <si>
-    <t>物品50</t>
+    <t>增加1000金币，200钻石</t>
+  </si>
+  <si>
+    <t>10,39</t>
+  </si>
+  <si>
+    <t>金币福袋</t>
   </si>
   <si>
     <t>物品50的地址</t>
   </si>
   <si>
-    <t>物品50的简介</t>
-  </si>
-  <si>
-    <t>物品51</t>
+    <t>增加100金币</t>
   </si>
   <si>
     <t>物品51的地址</t>
   </si>
   <si>
-    <t>物品51的简介</t>
-  </si>
-  <si>
-    <t>物品52</t>
+    <t>增加200金币</t>
   </si>
   <si>
     <t>物品52的地址</t>
   </si>
   <si>
-    <t>物品52的简介</t>
-  </si>
-  <si>
-    <t>物品53</t>
+    <t>增加300金币</t>
   </si>
   <si>
     <t>物品53的地址</t>
   </si>
   <si>
-    <t>物品53的简介</t>
-  </si>
-  <si>
-    <t>物品54</t>
+    <t>增加400金币</t>
   </si>
   <si>
     <t>物品54的地址</t>
   </si>
   <si>
-    <t>物品54的简介</t>
-  </si>
-  <si>
-    <t>物品55</t>
+    <t>增加500金币</t>
   </si>
   <si>
     <t>物品55的地址</t>
   </si>
   <si>
-    <t>物品55的简介</t>
-  </si>
-  <si>
-    <t>物品56</t>
+    <t>增加600金币</t>
   </si>
   <si>
     <t>物品56的地址</t>
   </si>
   <si>
-    <t>物品56的简介</t>
-  </si>
-  <si>
-    <t>物品57</t>
+    <t>增加700金币</t>
   </si>
   <si>
     <t>物品57的地址</t>
   </si>
   <si>
-    <t>物品57的简介</t>
-  </si>
-  <si>
-    <t>物品58</t>
+    <t>增加800金币</t>
   </si>
   <si>
     <t>物品58的地址</t>
   </si>
   <si>
-    <t>物品58的简介</t>
-  </si>
-  <si>
-    <t>物品59</t>
+    <t>增加900金币</t>
   </si>
   <si>
     <t>物品59的地址</t>
   </si>
   <si>
-    <t>物品59的简介</t>
-  </si>
-  <si>
-    <t>物品60</t>
+    <t>增加1000金币</t>
+  </si>
+  <si>
+    <t>经验福袋</t>
   </si>
   <si>
     <t>物品60的地址</t>
   </si>
   <si>
-    <t>物品60的简介</t>
-  </si>
-  <si>
-    <t>物品61</t>
+    <t>增加100经验</t>
   </si>
   <si>
     <t>物品61的地址</t>
   </si>
   <si>
-    <t>物品61的简介</t>
-  </si>
-  <si>
-    <t>物品62</t>
+    <t>增加200经验</t>
   </si>
   <si>
     <t>物品62的地址</t>
   </si>
   <si>
-    <t>物品62的简介</t>
-  </si>
-  <si>
-    <t>物品63</t>
+    <t>增加300经验</t>
   </si>
   <si>
     <t>物品63的地址</t>
   </si>
   <si>
-    <t>物品63的简介</t>
-  </si>
-  <si>
-    <t>物品64</t>
+    <t>增加400经验</t>
   </si>
   <si>
     <t>物品64的地址</t>
   </si>
   <si>
-    <t>物品64的简介</t>
-  </si>
-  <si>
-    <t>物品65</t>
+    <t>增加500经验</t>
   </si>
   <si>
     <t>物品65的地址</t>
   </si>
   <si>
-    <t>物品65的简介</t>
-  </si>
-  <si>
-    <t>物品66</t>
+    <t>增加600经验</t>
   </si>
   <si>
     <t>物品66的地址</t>
   </si>
   <si>
-    <t>物品66的简介</t>
-  </si>
-  <si>
-    <t>物品67</t>
+    <t>增加700经验</t>
   </si>
   <si>
     <t>物品67的地址</t>
   </si>
   <si>
-    <t>物品67的简介</t>
-  </si>
-  <si>
-    <t>物品68</t>
+    <t>增加800经验</t>
   </si>
   <si>
     <t>物品68的地址</t>
   </si>
   <si>
-    <t>物品68的简介</t>
-  </si>
-  <si>
-    <t>物品69</t>
+    <t>增加900经验</t>
   </si>
   <si>
     <t>物品69的地址</t>
   </si>
   <si>
-    <t>物品69的简介</t>
-  </si>
-  <si>
-    <t>物品70</t>
+    <t>增加1000经验</t>
+  </si>
+  <si>
+    <t>英雄券</t>
   </si>
   <si>
     <t>物品70的地址</t>
   </si>
   <si>
-    <t>物品70的简介</t>
-  </si>
-  <si>
-    <t>物品71</t>
+    <t>增加英雄券*1（请等待未来版本使用）</t>
   </si>
   <si>
     <t>物品71的地址</t>
   </si>
   <si>
-    <t>物品71的简介</t>
-  </si>
-  <si>
-    <t>物品72</t>
+    <t>增加英雄券*2（请等待未来版本使用）</t>
   </si>
   <si>
     <t>物品72的地址</t>
   </si>
   <si>
-    <t>物品72的简介</t>
-  </si>
-  <si>
-    <t>物品73</t>
+    <t>增加英雄券*3（请等待未来版本使用）</t>
   </si>
   <si>
     <t>物品73的地址</t>
   </si>
   <si>
-    <t>物品73的简介</t>
-  </si>
-  <si>
-    <t>物品74</t>
+    <t>增加英雄券*4（请等待未来版本使用）</t>
   </si>
   <si>
     <t>物品74的地址</t>
   </si>
   <si>
-    <t>物品74的简介</t>
-  </si>
-  <si>
-    <t>物品75</t>
+    <t>增加英雄券*5（请等待未来版本使用）</t>
   </si>
   <si>
     <t>物品75的地址</t>
   </si>
   <si>
-    <t>物品75的简介</t>
-  </si>
-  <si>
-    <t>物品76</t>
+    <t>增加英雄券*6（请等待未来版本使用）</t>
   </si>
   <si>
     <t>物品76的地址</t>
   </si>
   <si>
-    <t>物品76的简介</t>
-  </si>
-  <si>
-    <t>物品77</t>
+    <t>增加英雄券*7（请等待未来版本使用）</t>
   </si>
   <si>
     <t>物品77的地址</t>
   </si>
   <si>
-    <t>物品77的简介</t>
+    <t>增加英雄券*8（请等待未来版本使用）</t>
+  </si>
+  <si>
+    <t>物品78的地址</t>
+  </si>
+  <si>
+    <t>增加英雄券*9（请等待未来版本使用）</t>
+  </si>
+  <si>
+    <t>物品79的地址</t>
+  </si>
+  <si>
+    <t>增加英雄券*10（请等待未来版本使用）</t>
+  </si>
+  <si>
+    <t>全能福袋</t>
+  </si>
+  <si>
+    <t>增加100经验，100金币，10钻石</t>
+  </si>
+  <si>
+    <t>0,10,20</t>
+  </si>
+  <si>
+    <t>增加200经验，200金币，20钻石</t>
+  </si>
+  <si>
+    <t>1,11,21</t>
+  </si>
+  <si>
+    <t>增加300经验，300金币，30钻石</t>
+  </si>
+  <si>
+    <t>2,12,22</t>
+  </si>
+  <si>
+    <t>增加400经验，400金币，40钻石</t>
+  </si>
+  <si>
+    <t>3,13,23</t>
+  </si>
+  <si>
+    <t>增加500经验，500金币，50钻石</t>
+  </si>
+  <si>
+    <t>4,14,24</t>
   </si>
 </sst>
 </file>
@@ -751,9 +676,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -780,17 +705,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,44 +780,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,13 +803,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -886,27 +812,26 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -935,7 +860,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,7 +896,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,31 +992,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,109 +1022,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,6 +1047,56 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,54 +1125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1215,159 +1142,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1696,25 +1621,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
     <col min="7" max="7" width="16.875" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1730,184 +1655,223 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15">
         <v>11</v>
       </c>
@@ -1915,32 +1879,38 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="F16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
@@ -1948,901 +1918,1205 @@
       <c r="E17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="F18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="F19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
+        <v>58</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
+        <v>62</v>
+      </c>
+      <c r="F23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24">
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
+        <v>64</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25">
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
+        <v>66</v>
+      </c>
+      <c r="F25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
+        <v>68</v>
+      </c>
+      <c r="F26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28">
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
+        <v>72</v>
+      </c>
+      <c r="F28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29">
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
+        <v>74</v>
+      </c>
+      <c r="F29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
+        <v>76</v>
+      </c>
+      <c r="F30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
+        <v>78</v>
+      </c>
+      <c r="F31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32">
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+        <v>80</v>
+      </c>
+      <c r="F32">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33">
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
+        <v>82</v>
+      </c>
+      <c r="F33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
+        <v>85</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35">
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
+        <v>88</v>
+      </c>
+      <c r="F35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37">
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38">
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
+        <v>97</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39">
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
+        <v>100</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40">
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
+        <v>103</v>
+      </c>
+      <c r="F40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41">
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
+        <v>106</v>
+      </c>
+      <c r="F41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42">
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
+        <v>109</v>
+      </c>
+      <c r="F42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43">
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
+        <v>112</v>
+      </c>
+      <c r="F43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44">
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
+        <v>115</v>
+      </c>
+      <c r="F44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45">
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
+        <v>118</v>
+      </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46">
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
+        <v>121</v>
+      </c>
+      <c r="F46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47">
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
+        <v>124</v>
+      </c>
+      <c r="F47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48">
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
+        <v>127</v>
+      </c>
+      <c r="F48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49">
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
+        <v>130</v>
+      </c>
+      <c r="F49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50">
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
+        <v>133</v>
+      </c>
+      <c r="F50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51">
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
+        <v>136</v>
+      </c>
+      <c r="F51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52">
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
+        <v>139</v>
+      </c>
+      <c r="F52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53">
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
+        <v>142</v>
+      </c>
+      <c r="F53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54">
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
+        <v>146</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55">
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
+        <v>148</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56">
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
+        <v>150</v>
+      </c>
+      <c r="F56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57">
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
+        <v>152</v>
+      </c>
+      <c r="F57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
       <c r="B58">
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E58" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
+        <v>154</v>
+      </c>
+      <c r="F58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59">
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E59" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
+        <v>156</v>
+      </c>
+      <c r="F59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
       <c r="B60">
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
+        <v>158</v>
+      </c>
+      <c r="F60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
       <c r="B61">
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E61" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
+        <v>160</v>
+      </c>
+      <c r="F61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
       <c r="B62">
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
+        <v>162</v>
+      </c>
+      <c r="F62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
       <c r="B63">
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E63" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
+        <v>164</v>
+      </c>
+      <c r="F63">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
       <c r="B64">
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D64" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E64" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
+        <v>167</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65">
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D65" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
+        <v>169</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
       <c r="B66">
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="E66" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
+        <v>171</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
       <c r="B67">
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="E67" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
+        <v>173</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68">
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="E68" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
+        <v>175</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
       <c r="B69">
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="E69" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
+        <v>177</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
       <c r="B70">
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="E70" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
+        <v>179</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
       <c r="B71">
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="E71" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
+        <v>181</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
       <c r="B72">
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="E72" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
+        <v>183</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
       <c r="B73">
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="E73" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
+        <v>185</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
       <c r="B74">
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="E74" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
+        <v>188</v>
+      </c>
+      <c r="F74">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
       <c r="B75">
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
+        <v>190</v>
+      </c>
+      <c r="F75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
       <c r="B76">
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="E76" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
+        <v>192</v>
+      </c>
+      <c r="F76">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
       <c r="B77">
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
+        <v>194</v>
+      </c>
+      <c r="F77">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
       <c r="B78">
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="E78" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
+        <v>196</v>
+      </c>
+      <c r="F78">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
       <c r="B79">
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="E79" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
+        <v>198</v>
+      </c>
+      <c r="F79">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
       <c r="B80">
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="E80" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
+        <v>200</v>
+      </c>
+      <c r="F80">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
       <c r="B81">
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="D81" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>202</v>
+      </c>
+      <c r="F81">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" t="s">
+        <v>205</v>
+      </c>
+      <c r="E83" t="s">
+        <v>206</v>
+      </c>
+      <c r="F83">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84">
+        <v>80</v>
+      </c>
+      <c r="C84" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84" t="s">
+        <v>208</v>
+      </c>
+      <c r="F84" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85" t="s">
+        <v>210</v>
+      </c>
+      <c r="F85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86" t="s">
+        <v>212</v>
+      </c>
+      <c r="F86" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>207</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88" t="s">
+        <v>216</v>
+      </c>
+      <c r="F88" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Luban/MiniDesignerConfigsTemplate/Datas/datas/itemcfg.xlsx
+++ b/Tools/Luban/MiniDesignerConfigsTemplate/Datas/datas/itemcfg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="134">
   <si>
     <t>##var</t>
   </si>
@@ -49,94 +49,64 @@
     <t>##</t>
   </si>
   <si>
-    <t>经验金币福袋</t>
-  </si>
-  <si>
-    <t>物品0的地址</t>
-  </si>
-  <si>
-    <t>增加100经验，100金币</t>
+    <t>经验金币礼盒</t>
+  </si>
+  <si>
+    <t>经验金币礼盒，使用效果：增加100经验，100金币。</t>
   </si>
   <si>
     <t>0,10</t>
   </si>
   <si>
-    <t>物品1的地址</t>
-  </si>
-  <si>
-    <t>增加100经验，200金币</t>
+    <t>经验金币礼盒，使用效果：增加100经验，200金币。</t>
   </si>
   <si>
     <t>0,11</t>
   </si>
   <si>
-    <t>物品2的地址</t>
-  </si>
-  <si>
-    <t>增加100经验，300金币</t>
+    <t>经验金币礼盒，使用效果：增加100经验，300金币。</t>
   </si>
   <si>
     <t>0,12</t>
   </si>
   <si>
-    <t>物品3的地址</t>
-  </si>
-  <si>
-    <t>增加100经验，400金币</t>
+    <t>经验金币礼盒，使用效果：增加100经验，400金币。</t>
   </si>
   <si>
     <t>0,13</t>
   </si>
   <si>
-    <t>物品4的地址</t>
-  </si>
-  <si>
-    <t>增加100经验，500金币</t>
+    <t>经验金币礼盒，使用效果：增加100经验，500金币。</t>
   </si>
   <si>
     <t>0,14</t>
   </si>
   <si>
-    <t>物品5的地址</t>
-  </si>
-  <si>
-    <t>增加100经验，600金币</t>
+    <t>经验金币礼盒，使用效果：增加100经验，600金币。</t>
   </si>
   <si>
     <t>0,15</t>
   </si>
   <si>
-    <t>物品6的地址</t>
-  </si>
-  <si>
-    <t>增加100经验，700金币</t>
+    <t>经验金币礼盒，使用效果：增加100经验，700金币。</t>
   </si>
   <si>
     <t>0,16</t>
   </si>
   <si>
-    <t>物品7的地址</t>
-  </si>
-  <si>
-    <t>增加100经验，800金币</t>
+    <t>经验金币礼盒，使用效果：增加100经验，800金币。</t>
   </si>
   <si>
     <t>0,17</t>
   </si>
   <si>
-    <t>物品8的地址</t>
-  </si>
-  <si>
-    <t>增加100经验，900金币</t>
+    <t>经验金币礼盒，使用效果：增加100经验，900金币。</t>
   </si>
   <si>
     <t>0,18</t>
   </si>
   <si>
-    <t>物品9的地址</t>
-  </si>
-  <si>
-    <t>增加100经验，1000金币</t>
+    <t>经验金币礼盒，使用效果：增加100经验，1000金币。</t>
   </si>
   <si>
     <t>0,19</t>
@@ -145,526 +115,304 @@
     <t>钻石福袋</t>
   </si>
   <si>
-    <t>物品10的地址</t>
-  </si>
-  <si>
-    <t>增加10钻石</t>
-  </si>
-  <si>
-    <t>物品11的地址</t>
-  </si>
-  <si>
-    <t>增加20钻石</t>
-  </si>
-  <si>
-    <t>物品12的地址</t>
-  </si>
-  <si>
-    <t>增加30钻石</t>
-  </si>
-  <si>
-    <t>物品13的地址</t>
-  </si>
-  <si>
-    <t>增加40钻石</t>
-  </si>
-  <si>
-    <t>物品14的地址</t>
-  </si>
-  <si>
-    <t>增加50钻石</t>
-  </si>
-  <si>
-    <t>物品15的地址</t>
-  </si>
-  <si>
-    <t>增加60钻石</t>
-  </si>
-  <si>
-    <t>物品16的地址</t>
-  </si>
-  <si>
-    <t>增加70钻石</t>
-  </si>
-  <si>
-    <t>物品17的地址</t>
-  </si>
-  <si>
-    <t>增加80钻石</t>
-  </si>
-  <si>
-    <t>物品18的地址</t>
-  </si>
-  <si>
-    <t>增加90钻石</t>
-  </si>
-  <si>
-    <t>物品19的地址</t>
-  </si>
-  <si>
-    <t>增加100钻石</t>
-  </si>
-  <si>
-    <t>物品20的地址</t>
-  </si>
-  <si>
-    <t>增加110钻石</t>
-  </si>
-  <si>
-    <t>物品21的地址</t>
-  </si>
-  <si>
-    <t>增加120钻石</t>
-  </si>
-  <si>
-    <t>物品22的地址</t>
-  </si>
-  <si>
-    <t>增加130钻石</t>
-  </si>
-  <si>
-    <t>物品23的地址</t>
-  </si>
-  <si>
-    <t>增加140钻石</t>
-  </si>
-  <si>
-    <t>物品24的地址</t>
-  </si>
-  <si>
-    <t>增加150钻石</t>
-  </si>
-  <si>
-    <t>物品25的地址</t>
-  </si>
-  <si>
-    <t>增加160钻石</t>
-  </si>
-  <si>
-    <t>物品26的地址</t>
-  </si>
-  <si>
-    <t>增加170钻石</t>
-  </si>
-  <si>
-    <t>物品27的地址</t>
-  </si>
-  <si>
-    <t>增加180钻石</t>
-  </si>
-  <si>
-    <t>物品28的地址</t>
-  </si>
-  <si>
-    <t>增加190钻石</t>
-  </si>
-  <si>
-    <t>物品29的地址</t>
-  </si>
-  <si>
-    <t>增加200钻石</t>
-  </si>
-  <si>
-    <t>金币钻石福袋</t>
-  </si>
-  <si>
-    <t>物品30的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，10钻石</t>
+    <t>钻石福袋，使用效果：增加10钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加20钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加30钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加40钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加50钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加60钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加70钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加80钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加90钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加100钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加110钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加120钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加130钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加140钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加150钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加160钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加170钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加180钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加190钻石。</t>
+  </si>
+  <si>
+    <t>钻石福袋，使用效果：增加200钻石。</t>
+  </si>
+  <si>
+    <t>金币钻石礼盒</t>
+  </si>
+  <si>
+    <t>金币钻石礼盒，使用效果：增加1000金币，10钻石。</t>
   </si>
   <si>
     <t>10,20</t>
   </si>
   <si>
-    <t>物品31的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，20钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，20钻石。</t>
   </si>
   <si>
     <t>10,21</t>
   </si>
   <si>
-    <t>物品32的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，30钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，30钻石。</t>
   </si>
   <si>
     <t>10,22</t>
   </si>
   <si>
-    <t>物品33的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，40钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，40钻石。</t>
   </si>
   <si>
     <t>10,23</t>
   </si>
   <si>
-    <t>物品34的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，50钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，50钻石。</t>
   </si>
   <si>
     <t>10,24</t>
   </si>
   <si>
-    <t>物品35的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，60钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，60钻石。</t>
   </si>
   <si>
     <t>10,25</t>
   </si>
   <si>
-    <t>物品36的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，70钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，70钻石。</t>
   </si>
   <si>
     <t>10,26</t>
   </si>
   <si>
-    <t>物品37的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，80钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，80钻石。</t>
   </si>
   <si>
     <t>10,27</t>
   </si>
   <si>
-    <t>物品38的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，90钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，90钻石。</t>
   </si>
   <si>
     <t>10,28</t>
   </si>
   <si>
-    <t>物品39的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，100钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，100钻石。</t>
   </si>
   <si>
     <t>10,29</t>
   </si>
   <si>
-    <t>物品40的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，110钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，110钻石。</t>
   </si>
   <si>
     <t>10,30</t>
   </si>
   <si>
-    <t>物品41的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，120钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，120钻石。</t>
   </si>
   <si>
     <t>10,31</t>
   </si>
   <si>
-    <t>物品42的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，130钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，130钻石。</t>
   </si>
   <si>
     <t>10,32</t>
   </si>
   <si>
-    <t>物品43的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，140钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，140钻石。</t>
   </si>
   <si>
     <t>10,33</t>
   </si>
   <si>
-    <t>物品44的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，150钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，150钻石。</t>
   </si>
   <si>
     <t>10,34</t>
   </si>
   <si>
-    <t>物品45的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，160钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，160钻石。</t>
   </si>
   <si>
     <t>10,35</t>
   </si>
   <si>
-    <t>物品46的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，170钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，170钻石。</t>
   </si>
   <si>
     <t>10,36</t>
   </si>
   <si>
-    <t>物品47的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，180钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，180钻石。</t>
   </si>
   <si>
     <t>10,37</t>
   </si>
   <si>
-    <t>物品48的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，190钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，190钻石。</t>
   </si>
   <si>
     <t>10,38</t>
   </si>
   <si>
-    <t>物品49的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币，200钻石</t>
+    <t>金币钻石礼盒，使用效果：增加1000金币，200钻石。</t>
   </si>
   <si>
     <t>10,39</t>
   </si>
   <si>
-    <t>金币福袋</t>
-  </si>
-  <si>
-    <t>物品50的地址</t>
-  </si>
-  <si>
-    <t>增加100金币</t>
-  </si>
-  <si>
-    <t>物品51的地址</t>
-  </si>
-  <si>
-    <t>增加200金币</t>
-  </si>
-  <si>
-    <t>物品52的地址</t>
-  </si>
-  <si>
-    <t>增加300金币</t>
-  </si>
-  <si>
-    <t>物品53的地址</t>
-  </si>
-  <si>
-    <t>增加400金币</t>
-  </si>
-  <si>
-    <t>物品54的地址</t>
-  </si>
-  <si>
-    <t>增加500金币</t>
-  </si>
-  <si>
-    <t>物品55的地址</t>
-  </si>
-  <si>
-    <t>增加600金币</t>
-  </si>
-  <si>
-    <t>物品56的地址</t>
-  </si>
-  <si>
-    <t>增加700金币</t>
-  </si>
-  <si>
-    <t>物品57的地址</t>
-  </si>
-  <si>
-    <t>增加800金币</t>
-  </si>
-  <si>
-    <t>物品58的地址</t>
-  </si>
-  <si>
-    <t>增加900金币</t>
-  </si>
-  <si>
-    <t>物品59的地址</t>
-  </si>
-  <si>
-    <t>增加1000金币</t>
-  </si>
-  <si>
-    <t>经验福袋</t>
-  </si>
-  <si>
-    <t>物品60的地址</t>
-  </si>
-  <si>
-    <t>增加100经验</t>
-  </si>
-  <si>
-    <t>物品61的地址</t>
-  </si>
-  <si>
-    <t>增加200经验</t>
-  </si>
-  <si>
-    <t>物品62的地址</t>
-  </si>
-  <si>
-    <t>增加300经验</t>
-  </si>
-  <si>
-    <t>物品63的地址</t>
-  </si>
-  <si>
-    <t>增加400经验</t>
-  </si>
-  <si>
-    <t>物品64的地址</t>
-  </si>
-  <si>
-    <t>增加500经验</t>
-  </si>
-  <si>
-    <t>物品65的地址</t>
-  </si>
-  <si>
-    <t>增加600经验</t>
-  </si>
-  <si>
-    <t>物品66的地址</t>
-  </si>
-  <si>
-    <t>增加700经验</t>
-  </si>
-  <si>
-    <t>物品67的地址</t>
-  </si>
-  <si>
-    <t>增加800经验</t>
-  </si>
-  <si>
-    <t>物品68的地址</t>
-  </si>
-  <si>
-    <t>增加900经验</t>
-  </si>
-  <si>
-    <t>物品69的地址</t>
-  </si>
-  <si>
-    <t>增加1000经验</t>
-  </si>
-  <si>
-    <t>英雄券</t>
-  </si>
-  <si>
-    <t>物品70的地址</t>
-  </si>
-  <si>
-    <t>增加英雄券*1（请等待未来版本使用）</t>
-  </si>
-  <si>
-    <t>物品71的地址</t>
-  </si>
-  <si>
-    <t>增加英雄券*2（请等待未来版本使用）</t>
-  </si>
-  <si>
-    <t>物品72的地址</t>
-  </si>
-  <si>
-    <t>增加英雄券*3（请等待未来版本使用）</t>
-  </si>
-  <si>
-    <t>物品73的地址</t>
-  </si>
-  <si>
-    <t>增加英雄券*4（请等待未来版本使用）</t>
-  </si>
-  <si>
-    <t>物品74的地址</t>
-  </si>
-  <si>
-    <t>增加英雄券*5（请等待未来版本使用）</t>
-  </si>
-  <si>
-    <t>物品75的地址</t>
-  </si>
-  <si>
-    <t>增加英雄券*6（请等待未来版本使用）</t>
-  </si>
-  <si>
-    <t>物品76的地址</t>
-  </si>
-  <si>
-    <t>增加英雄券*7（请等待未来版本使用）</t>
-  </si>
-  <si>
-    <t>物品77的地址</t>
-  </si>
-  <si>
-    <t>增加英雄券*8（请等待未来版本使用）</t>
-  </si>
-  <si>
-    <t>物品78的地址</t>
-  </si>
-  <si>
-    <t>增加英雄券*9（请等待未来版本使用）</t>
-  </si>
-  <si>
-    <t>物品79的地址</t>
-  </si>
-  <si>
-    <t>增加英雄券*10（请等待未来版本使用）</t>
-  </si>
-  <si>
-    <t>全能福袋</t>
-  </si>
-  <si>
-    <t>增加100经验，100金币，10钻石</t>
+    <t>金币礼盒</t>
+  </si>
+  <si>
+    <t>金币礼盒，使用效果：增加100金币。</t>
+  </si>
+  <si>
+    <t>金币礼盒，使用效果：增加200金币。</t>
+  </si>
+  <si>
+    <t>金币礼盒，使用效果：增加300金币。</t>
+  </si>
+  <si>
+    <t>金币礼盒，使用效果：增加400金币。</t>
+  </si>
+  <si>
+    <t>金币礼盒，使用效果：增加500金币。</t>
+  </si>
+  <si>
+    <t>金币礼盒，使用效果：增加600金币。</t>
+  </si>
+  <si>
+    <t>金币礼盒，使用效果：增加700金币。</t>
+  </si>
+  <si>
+    <t>金币礼盒，使用效果：增加800金币。</t>
+  </si>
+  <si>
+    <t>金币礼盒，使用效果：增加900金币。</t>
+  </si>
+  <si>
+    <t>金币礼盒，使用效果：增加1000金币。</t>
+  </si>
+  <si>
+    <t>经验礼盒</t>
+  </si>
+  <si>
+    <t>经验礼盒，使用效果：增加100经验。</t>
+  </si>
+  <si>
+    <t>经验礼盒，使用效果：增加200经验。</t>
+  </si>
+  <si>
+    <t>经验礼盒，使用效果：增加300经验。</t>
+  </si>
+  <si>
+    <t>经验礼盒，使用效果：增加400经验。</t>
+  </si>
+  <si>
+    <t>经验礼盒，使用效果：增加500经验。</t>
+  </si>
+  <si>
+    <t>经验礼盒，使用效果：增加600经验。</t>
+  </si>
+  <si>
+    <t>经验礼盒，使用效果：增加700经验。</t>
+  </si>
+  <si>
+    <t>经验礼盒，使用效果：增加800经验。</t>
+  </si>
+  <si>
+    <t>经验礼盒，使用效果：增加900经验。</t>
+  </si>
+  <si>
+    <t>经验礼盒，使用效果：增加1000经验。</t>
+  </si>
+  <si>
+    <t>英雄券福袋</t>
+  </si>
+  <si>
+    <t>英雄券，使用效果：增加英雄券*1（请等待未来版本使用）。</t>
+  </si>
+  <si>
+    <t>英雄券，使用效果：增加英雄券*2（请等待未来版本使用）。</t>
+  </si>
+  <si>
+    <t>英雄券，使用效果：增加英雄券*3（请等待未来版本使用）。</t>
+  </si>
+  <si>
+    <t>英雄券，使用效果：增加英雄券*4（请等待未来版本使用）。</t>
+  </si>
+  <si>
+    <t>英雄券，使用效果：增加英雄券*5（请等待未来版本使用）。</t>
+  </si>
+  <si>
+    <t>英雄券，使用效果：增加英雄券*6（请等待未来版本使用）。</t>
+  </si>
+  <si>
+    <t>英雄券，使用效果：增加英雄券*7（请等待未来版本使用）。</t>
+  </si>
+  <si>
+    <t>英雄券，使用效果：增加英雄券*8（请等待未来版本使用）。</t>
+  </si>
+  <si>
+    <t>英雄券，使用效果：增加英雄券*9（请等待未来版本使用）。</t>
+  </si>
+  <si>
+    <t>英雄券，使用效果：增加英雄券*10（请等待未来版本使用）。</t>
+  </si>
+  <si>
+    <t>神秘礼盒</t>
+  </si>
+  <si>
+    <t>神秘礼盒，开启随机获得经验、金币、钻石。</t>
   </si>
   <si>
     <t>0,10,20</t>
   </si>
   <si>
-    <t>增加200经验，200金币，20钻石</t>
-  </si>
-  <si>
     <t>1,11,21</t>
   </si>
   <si>
-    <t>增加300经验，300金币，30钻石</t>
-  </si>
-  <si>
     <t>2,12,22</t>
   </si>
   <si>
-    <t>增加400经验，400金币，40钻石</t>
-  </si>
-  <si>
     <t>3,13,23</t>
-  </si>
-  <si>
-    <t>增加500经验，500金币，50钻石</t>
   </si>
   <si>
     <t>4,14,24</t>
@@ -675,10 +423,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -711,32 +459,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,15 +473,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,11 +489,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,6 +524,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -796,10 +544,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -818,20 +580,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -860,169 +608,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,26 +814,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1097,6 +825,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,6 +862,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1139,25 +896,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1166,7 +914,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,7 +923,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,115 +932,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1624,7 +1372,7 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1632,8 +1380,8 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="58.5" customWidth="1"/>
     <col min="6" max="6" width="41.125" customWidth="1"/>
     <col min="7" max="7" width="16.875" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
@@ -1691,14 +1439,14 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>12000</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -1708,14 +1456,14 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>12000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1725,14 +1473,14 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
+      <c r="D6">
+        <v>12001</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1742,14 +1490,14 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
+      <c r="D7">
+        <v>12001</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1759,14 +1507,14 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
+      <c r="D8">
+        <v>12002</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1776,14 +1524,14 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
+      <c r="D9">
+        <v>12002</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1793,14 +1541,14 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
+      <c r="D10">
+        <v>12003</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -1810,14 +1558,14 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
+      <c r="D11">
+        <v>12003</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -1827,14 +1575,14 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>36</v>
+      <c r="D12">
+        <v>12004</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -1844,14 +1592,14 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>39</v>
+      <c r="D13">
+        <v>12005</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1859,13 +1607,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>13045</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1876,13 +1624,13 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>13045</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>21</v>
@@ -1893,13 +1641,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>13045</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>22</v>
@@ -1910,13 +1658,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>13045</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>23</v>
@@ -1927,13 +1675,13 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>13045</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>24</v>
@@ -1944,13 +1692,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>13045</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>25</v>
@@ -1961,13 +1709,13 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>13045</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>26</v>
@@ -1978,13 +1726,13 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>13045</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F21">
         <v>27</v>
@@ -1995,13 +1743,13 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>13045</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F22">
         <v>28</v>
@@ -2012,13 +1760,13 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>13045</v>
+      </c>
+      <c r="E23" t="s">
         <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
       </c>
       <c r="F23">
         <v>29</v>
@@ -2029,13 +1777,13 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>13045</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -2046,13 +1794,13 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>13045</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F25">
         <v>31</v>
@@ -2063,13 +1811,13 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>13045</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F26">
         <v>32</v>
@@ -2080,13 +1828,13 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>13045</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F27">
         <v>33</v>
@@ -2097,13 +1845,13 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>13045</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F28">
         <v>34</v>
@@ -2114,13 +1862,13 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>13045</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F29">
         <v>35</v>
@@ -2131,13 +1879,13 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>13045</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F30">
         <v>36</v>
@@ -2148,13 +1896,13 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>13045</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <v>37</v>
@@ -2165,13 +1913,13 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>13045</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F32">
         <v>38</v>
@@ -2182,13 +1930,13 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" t="s">
-        <v>81</v>
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>13045</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="F33">
         <v>39</v>
@@ -2199,16 +1947,16 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="D34">
+        <v>12014</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -2216,16 +1964,16 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" t="s">
-        <v>87</v>
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>12014</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -2233,16 +1981,16 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" t="s">
-        <v>90</v>
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>12014</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="2:6">
@@ -2250,16 +1998,16 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" t="s">
-        <v>93</v>
+        <v>53</v>
+      </c>
+      <c r="D37">
+        <v>12014</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:6">
@@ -2267,16 +2015,16 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" t="s">
-        <v>96</v>
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>12014</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:6">
@@ -2284,16 +2032,16 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" t="s">
-        <v>99</v>
+        <v>53</v>
+      </c>
+      <c r="D39">
+        <v>12017</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F39" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -2301,16 +2049,16 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
-        <v>102</v>
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>12017</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="2:6">
@@ -2318,16 +2066,16 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" t="s">
-        <v>105</v>
+        <v>53</v>
+      </c>
+      <c r="D41">
+        <v>12017</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:6">
@@ -2335,16 +2083,16 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" t="s">
-        <v>108</v>
+        <v>53</v>
+      </c>
+      <c r="D42">
+        <v>12017</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="F42" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="2:6">
@@ -2352,16 +2100,16 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" t="s">
-        <v>111</v>
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>12017</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="2:6">
@@ -2369,16 +2117,16 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
+        <v>53</v>
+      </c>
+      <c r="D44">
+        <v>12018</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -2386,16 +2134,16 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" t="s">
-        <v>117</v>
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>12018</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="2:6">
@@ -2403,16 +2151,16 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" t="s">
-        <v>120</v>
+        <v>53</v>
+      </c>
+      <c r="D46">
+        <v>12018</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="2:6">
@@ -2420,16 +2168,16 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" t="s">
-        <v>123</v>
+        <v>53</v>
+      </c>
+      <c r="D47">
+        <v>12018</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:6">
@@ -2437,16 +2185,16 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48">
+        <v>12018</v>
+      </c>
+      <c r="E48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" t="s">
         <v>83</v>
-      </c>
-      <c r="D48" t="s">
-        <v>126</v>
-      </c>
-      <c r="E48" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="49" spans="2:6">
@@ -2454,16 +2202,16 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" t="s">
-        <v>129</v>
+        <v>53</v>
+      </c>
+      <c r="D49">
+        <v>13043</v>
       </c>
       <c r="E49" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:6">
@@ -2471,16 +2219,16 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" t="s">
-        <v>132</v>
+        <v>53</v>
+      </c>
+      <c r="D50">
+        <v>13043</v>
       </c>
       <c r="E50" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:6">
@@ -2488,16 +2236,16 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" t="s">
-        <v>135</v>
+        <v>53</v>
+      </c>
+      <c r="D51">
+        <v>13043</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="2:6">
@@ -2505,16 +2253,16 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" t="s">
-        <v>138</v>
+        <v>53</v>
+      </c>
+      <c r="D52">
+        <v>13043</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="2:6">
@@ -2522,16 +2270,16 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" t="s">
-        <v>141</v>
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>13043</v>
       </c>
       <c r="E53" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="2:6">
@@ -2539,13 +2287,13 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" t="s">
-        <v>145</v>
+        <v>94</v>
+      </c>
+      <c r="D54">
+        <v>12010</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="F54">
         <v>10</v>
@@ -2556,13 +2304,13 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" t="s">
-        <v>147</v>
+        <v>94</v>
+      </c>
+      <c r="D55">
+        <v>12010</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="F55">
         <v>11</v>
@@ -2573,13 +2321,13 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
-      </c>
-      <c r="D56" t="s">
-        <v>149</v>
+        <v>94</v>
+      </c>
+      <c r="D56">
+        <v>12010</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="F56">
         <v>12</v>
@@ -2590,13 +2338,13 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" t="s">
-        <v>151</v>
+        <v>94</v>
+      </c>
+      <c r="D57">
+        <v>12010</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="F57">
         <v>13</v>
@@ -2607,13 +2355,13 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" t="s">
-        <v>153</v>
+        <v>94</v>
+      </c>
+      <c r="D58">
+        <v>12010</v>
       </c>
       <c r="E58" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="F58">
         <v>14</v>
@@ -2624,13 +2372,13 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" t="s">
-        <v>155</v>
+        <v>94</v>
+      </c>
+      <c r="D59">
+        <v>12010</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="F59">
         <v>15</v>
@@ -2641,13 +2389,13 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" t="s">
-        <v>157</v>
+        <v>94</v>
+      </c>
+      <c r="D60">
+        <v>12010</v>
       </c>
       <c r="E60" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="F60">
         <v>16</v>
@@ -2658,13 +2406,13 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" t="s">
-        <v>159</v>
+        <v>94</v>
+      </c>
+      <c r="D61">
+        <v>12010</v>
       </c>
       <c r="E61" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="F61">
         <v>17</v>
@@ -2675,13 +2423,13 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" t="s">
-        <v>161</v>
+        <v>94</v>
+      </c>
+      <c r="D62">
+        <v>12010</v>
       </c>
       <c r="E62" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="F62">
         <v>18</v>
@@ -2692,13 +2440,13 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" t="s">
-        <v>163</v>
+        <v>94</v>
+      </c>
+      <c r="D63">
+        <v>12010</v>
       </c>
       <c r="E63" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="F63">
         <v>19</v>
@@ -2709,13 +2457,13 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" t="s">
-        <v>166</v>
+        <v>105</v>
+      </c>
+      <c r="D64">
+        <v>12011</v>
       </c>
       <c r="E64" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2726,13 +2474,13 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
-      </c>
-      <c r="D65" t="s">
-        <v>168</v>
+        <v>105</v>
+      </c>
+      <c r="D65">
+        <v>12011</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2743,13 +2491,13 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
-      </c>
-      <c r="D66" t="s">
-        <v>170</v>
+        <v>105</v>
+      </c>
+      <c r="D66">
+        <v>12011</v>
       </c>
       <c r="E66" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -2760,13 +2508,13 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>165</v>
-      </c>
-      <c r="D67" t="s">
-        <v>172</v>
+        <v>105</v>
+      </c>
+      <c r="D67">
+        <v>12011</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="F67">
         <v>3</v>
@@ -2777,13 +2525,13 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
-      </c>
-      <c r="D68" t="s">
-        <v>174</v>
+        <v>105</v>
+      </c>
+      <c r="D68">
+        <v>12011</v>
       </c>
       <c r="E68" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="F68">
         <v>4</v>
@@ -2794,13 +2542,13 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>165</v>
-      </c>
-      <c r="D69" t="s">
-        <v>176</v>
+        <v>105</v>
+      </c>
+      <c r="D69">
+        <v>12011</v>
       </c>
       <c r="E69" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="F69">
         <v>5</v>
@@ -2811,13 +2559,13 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
-      </c>
-      <c r="D70" t="s">
-        <v>178</v>
+        <v>105</v>
+      </c>
+      <c r="D70">
+        <v>12011</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="F70">
         <v>6</v>
@@ -2828,13 +2576,13 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
-      </c>
-      <c r="D71" t="s">
-        <v>180</v>
+        <v>105</v>
+      </c>
+      <c r="D71">
+        <v>12011</v>
       </c>
       <c r="E71" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="F71">
         <v>7</v>
@@ -2845,13 +2593,13 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
-      </c>
-      <c r="D72" t="s">
-        <v>182</v>
+        <v>105</v>
+      </c>
+      <c r="D72">
+        <v>12011</v>
       </c>
       <c r="E72" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="F72">
         <v>8</v>
@@ -2862,13 +2610,13 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
-      </c>
-      <c r="D73" t="s">
-        <v>184</v>
+        <v>105</v>
+      </c>
+      <c r="D73">
+        <v>12011</v>
       </c>
       <c r="E73" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="F73">
         <v>9</v>
@@ -2879,13 +2627,13 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
-      </c>
-      <c r="D74" t="s">
-        <v>187</v>
+        <v>116</v>
+      </c>
+      <c r="D74">
+        <v>13039</v>
       </c>
       <c r="E74" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="F74">
         <v>40</v>
@@ -2896,13 +2644,13 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>186</v>
-      </c>
-      <c r="D75" t="s">
-        <v>189</v>
+        <v>116</v>
+      </c>
+      <c r="D75">
+        <v>13039</v>
       </c>
       <c r="E75" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="F75">
         <v>41</v>
@@ -2913,13 +2661,13 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
-      </c>
-      <c r="D76" t="s">
-        <v>191</v>
+        <v>116</v>
+      </c>
+      <c r="D76">
+        <v>13039</v>
       </c>
       <c r="E76" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="F76">
         <v>42</v>
@@ -2930,13 +2678,13 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
-      </c>
-      <c r="D77" t="s">
-        <v>193</v>
+        <v>116</v>
+      </c>
+      <c r="D77">
+        <v>13039</v>
       </c>
       <c r="E77" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="F77">
         <v>43</v>
@@ -2947,13 +2695,13 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
-      </c>
-      <c r="D78" t="s">
-        <v>195</v>
+        <v>116</v>
+      </c>
+      <c r="D78">
+        <v>13039</v>
       </c>
       <c r="E78" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -2964,13 +2712,13 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>186</v>
-      </c>
-      <c r="D79" t="s">
-        <v>197</v>
+        <v>116</v>
+      </c>
+      <c r="D79">
+        <v>13039</v>
       </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="F79">
         <v>45</v>
@@ -2981,13 +2729,13 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
-      </c>
-      <c r="D80" t="s">
-        <v>199</v>
+        <v>116</v>
+      </c>
+      <c r="D80">
+        <v>13039</v>
       </c>
       <c r="E80" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="F80">
         <v>46</v>
@@ -2998,13 +2746,13 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>186</v>
-      </c>
-      <c r="D81" t="s">
-        <v>201</v>
+        <v>116</v>
+      </c>
+      <c r="D81">
+        <v>13039</v>
       </c>
       <c r="E81" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="F81">
         <v>47</v>
@@ -3015,13 +2763,13 @@
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>186</v>
-      </c>
-      <c r="D82" t="s">
-        <v>203</v>
+        <v>116</v>
+      </c>
+      <c r="D82">
+        <v>13039</v>
       </c>
       <c r="E82" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="F82">
         <v>48</v>
@@ -3032,13 +2780,13 @@
         <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>186</v>
-      </c>
-      <c r="D83" t="s">
-        <v>205</v>
+        <v>116</v>
+      </c>
+      <c r="D83">
+        <v>13039</v>
       </c>
       <c r="E83" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="F83">
         <v>49</v>
@@ -3049,14 +2797,16 @@
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
-      </c>
-      <c r="D84"/>
+        <v>127</v>
+      </c>
+      <c r="D84">
+        <v>13047</v>
+      </c>
       <c r="E84" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="F84" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="2:6">
@@ -3064,14 +2814,16 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85"/>
+        <v>127</v>
+      </c>
+      <c r="D85">
+        <v>13047</v>
+      </c>
       <c r="E85" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F85" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="2:6">
@@ -3079,14 +2831,16 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>207</v>
-      </c>
-      <c r="D86"/>
+        <v>127</v>
+      </c>
+      <c r="D86">
+        <v>13047</v>
+      </c>
       <c r="E86" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="F86" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="2:6">
@@ -3094,14 +2848,16 @@
         <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>207</v>
-      </c>
-      <c r="D87"/>
+        <v>127</v>
+      </c>
+      <c r="D87">
+        <v>13047</v>
+      </c>
       <c r="E87" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="F87" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="2:6">
@@ -3109,14 +2865,16 @@
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>207</v>
-      </c>
-      <c r="D88"/>
+        <v>127</v>
+      </c>
+      <c r="D88">
+        <v>13047</v>
+      </c>
       <c r="E88" t="s">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="F88" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
